--- a/medicine/Premiers secours et secourisme/Hospitaliers-Sauveteurs_bretons/Hospitaliers-Sauveteurs_bretons.xlsx
+++ b/medicine/Premiers secours et secourisme/Hospitaliers-Sauveteurs_bretons/Hospitaliers-Sauveteurs_bretons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hospitaliers Sauveteurs Bretons (HSB) est une association française, créée en 1873, dont la mission est l'aide aux personnes. Cette association a aujourd'hui laissé la place à la Société nationale de sauvetage en mer. 
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les HSB sont créés en 1873 à Rennes, par Henri Nadault de Buffon (1831-1890)[1], magistrat et historien, arrière petit-neveu du naturaliste, premier président des Hospitaliers-Sauveteurs Bretons jusqu'en 1878. Il précise son but : « cette œuvre est à la fois une institution de sauvetage et de sauveteurs et une société de bienfaisance, de moralisation et d’encouragement au bien ». La mission de la société est d'aider à faire face à tous les accidents de la vie, incendies, inondations, dangers en mer[2]. Elle édite un périodique, les Annales du bien. Les HSB apportent 250 postes, 6 canots tous temps, 83 canots et vedettes à moteur et plus de 200 pneumatiques[2]. Même si leurs moyen ne sont pas très avancés en matière de sauvetage, ils sont  très ancrés dans l'histoire de la Bretagne. La société vit des dons et legs. Dans les années 1950, les HSB sont particulièrement sollicités pour le sauvetage en mer.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les HSB sont créés en 1873 à Rennes, par Henri Nadault de Buffon (1831-1890), magistrat et historien, arrière petit-neveu du naturaliste, premier président des Hospitaliers-Sauveteurs Bretons jusqu'en 1878. Il précise son but : « cette œuvre est à la fois une institution de sauvetage et de sauveteurs et une société de bienfaisance, de moralisation et d’encouragement au bien ». La mission de la société est d'aider à faire face à tous les accidents de la vie, incendies, inondations, dangers en mer. Elle édite un périodique, les Annales du bien. Les HSB apportent 250 postes, 6 canots tous temps, 83 canots et vedettes à moteur et plus de 200 pneumatiques. Même si leurs moyen ne sont pas très avancés en matière de sauvetage, ils sont  très ancrés dans l'histoire de la Bretagne. La société vit des dons et legs. Dans les années 1950, les HSB sont particulièrement sollicités pour le sauvetage en mer.
 Le développement rapide de la plaisance et de la voile légère dans de nombreux sites côtiers amène sur l'eau quantité d'apprentis marins peu formés et souvent mal équipés, et parfois imprudents.
 L'environnement est lui aussi accidentogène : 
 Réglementation de sécurité des embarcations minimaliste
